--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_22_2.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_0</t>
+          <t>model_22_2_1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998922349592345</v>
+        <v>0.9999738968950653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991066513953916</v>
+        <v>0.9991775464137107</v>
       </c>
       <c r="D2" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9999399730398978</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996786399353907</v>
+        <v>0.9999318722496899</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9996640978306477</v>
+        <v>0.9999483368044262</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001005939352159788</v>
+        <v>2.436610266262613e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008339017089303306</v>
+        <v>0.0007677243212610383</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004429812989663473</v>
+        <v>5.991733667081632e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0001857307943118308</v>
+        <v>2.881271093681867e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003143560466390891</v>
+        <v>4.436375044980239e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004614682792502833</v>
+        <v>0.0004301461838670507</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01002965279638228</v>
+        <v>0.004936203263909027</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000152138881081</v>
+        <v>1.000036851442261</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01045663588016776</v>
+        <v>0.005146347656203054</v>
       </c>
       <c r="P2" t="n">
-        <v>100.4088371764788</v>
+        <v>103.2446352533704</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.382745996075</v>
+        <v>153.2185440729666</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_22</t>
+          <t>model_22_2_0</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999729744182334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991719826859451</v>
       </c>
       <c r="D3" t="n">
-        <v>0.999642044239351</v>
+        <v>0.999942888011692</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.999922506107403</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9999477230681345</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001005963946122808</v>
+        <v>2.522719429314325e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0007729178169107851</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004429812989663473</v>
+        <v>5.70076883048567e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0001857441470007699</v>
+        <v>3.277385671192421e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003143627229835587</v>
+        <v>4.489077250839045e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000450855457084674</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.005022668045286613</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000038153762494</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.005236493422330657</v>
       </c>
       <c r="P3" t="n">
-        <v>100.40878827957</v>
+        <v>103.1751760133632</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.3826970991662</v>
+        <v>153.1490848329595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_21</t>
+          <t>model_22_2_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999458112546016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9991256149874391</v>
       </c>
       <c r="D4" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998778127825364</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996744382313439</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.999848813356683</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.058281521840443e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008162000281593991</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001219640746953544</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001376871699077182</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001298256223015363</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0006997731313550795</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007112159673292244</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00007650175821</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007414939034784442</v>
       </c>
       <c r="P4" t="n">
-        <v>100.40878827957</v>
+        <v>101.783797319089</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.3826970991662</v>
+        <v>151.7577061386852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_20</t>
+          <t>model_22_2_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999453591059059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990649788083623</v>
       </c>
       <c r="D5" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998805071942614</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996019969223376</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998325404078622</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.100487617883263e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0008728012397069177</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.000119274583603661</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001683241788619679</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001437993812328144</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0006432815194807555</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007141769821188067</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00007714008578</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007445809747977647</v>
       </c>
       <c r="P5" t="n">
-        <v>100.40878827957</v>
+        <v>101.7671786369215</v>
       </c>
       <c r="Q5" t="n">
-        <v>150.3826970991662</v>
+        <v>151.7410874565178</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_19</t>
+          <t>model_22_2_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999399213717791</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9990041225788365</v>
       </c>
       <c r="D6" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998543604093603</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.999570446273663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998095743020737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.608076229722878e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009296078586895722</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001453736182892279</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.000181667636058118</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001635206271736729</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0006271611381038341</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007488708987350809</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000152142600687</v>
+        <v>1.0000848168869</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007807518832707018</v>
       </c>
       <c r="P6" t="n">
-        <v>100.40878827957</v>
+        <v>101.5774354445969</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5513442641931</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_18</t>
+          <t>model_22_2_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.99993998235115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989978102720024</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998507508234825</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995722819931703</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998079258408665</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.602384073118012e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009355001200409044</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001489766122091894</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001808912702558719</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001649361788214599</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0006146931309770205</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007484907529901764</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084730798376</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007803555539344265</v>
       </c>
       <c r="P7" t="n">
-        <v>100.40878827957</v>
+        <v>101.5794664609656</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5533752805618</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_17</t>
+          <t>model_22_2_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999401346658947</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989923175895735</v>
       </c>
       <c r="D8" t="n">
-        <v>0.999642044239351</v>
+        <v>0.99984741246805</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.999575188746411</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.999806703977811</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.58816616028579e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009406272979874063</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001523088710147926</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001796619409369146</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001659854059758535</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.000601640646225139</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007475403775239028</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084515765796</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007793647190170052</v>
       </c>
       <c r="P8" t="n">
-        <v>100.40878827957</v>
+        <v>101.5845485776394</v>
       </c>
       <c r="Q8" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5584573972357</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_16</t>
+          <t>model_22_2_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999401821773281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989871693299512</v>
       </c>
       <c r="D9" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998438397353947</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995781322632792</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998053523410293</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.583731176536293e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009454329723623302</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001558750790150079</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001784170634784407</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001671460712467243</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005892633663130091</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00747243680236661</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084448690831</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007790553907119975</v>
       </c>
       <c r="P9" t="n">
-        <v>100.40878827957</v>
+        <v>101.5861364848136</v>
       </c>
       <c r="Q9" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5600453044098</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_15</t>
+          <t>model_22_2_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999402418685812</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989825273605198</v>
       </c>
       <c r="D10" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998404031783724</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995815119297506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998041872537086</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.578159260059874e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009497660470675952</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001593053600710269</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001769877288436938</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001681465444573604</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005770067113220741</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007468707558915313</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084364420827</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007786665902054358</v>
       </c>
       <c r="P10" t="n">
-        <v>100.40878827957</v>
+        <v>101.5881332494193</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5620420690155</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_14</t>
+          <t>model_22_2_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999403108379465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989785126111634</v>
       </c>
       <c r="D11" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998372572740741</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995850852936417</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998032361118666</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.57172127255288e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009535136393647527</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001624455192038007</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001754764753472006</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001689633003480485</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005653792983610995</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007464396340329793</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084267052311</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.0077821711459682</v>
       </c>
       <c r="P11" t="n">
-        <v>100.40878827957</v>
+        <v>101.5904428663533</v>
       </c>
       <c r="Q11" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5643516859495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_13</t>
+          <t>model_22_2_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999402943654154</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989747069314522</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998340195171701</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.999588383583514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9998021692108299</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.57325891102237e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009570660743251735</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001656773631977004</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001740815566503947</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001698794599240476</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005545597542409137</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007465426251073926</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084290307649</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00778324490214492</v>
       </c>
       <c r="P12" t="n">
-        <v>100.40878827957</v>
+        <v>101.5898909987128</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.3826970991662</v>
+        <v>151.563799818309</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_23</t>
+          <t>model_22_2_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999402489195771</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989712424394418</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998309117451488</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995916483929324</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.999801166930923</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.577501080543702e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009603000255432176</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001687794596919577</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001727007975675546</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001707401286297562</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005461955660655696</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007468266921142885</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084354466479</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007786206505419712</v>
       </c>
       <c r="P13" t="n">
-        <v>100.40878827957</v>
+        <v>101.5883692478262</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5622780674224</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999401607682633</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989681079599687</v>
       </c>
       <c r="D14" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998279311577793</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995945449527126</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.999800147888438</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.585729618745195e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009632259245435321</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.000171754603803674</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001714757792853076</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001716151915444908</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005403234276636</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007473773891913773</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084478915393</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007791947919337319</v>
       </c>
       <c r="P14" t="n">
-        <v>100.40878827957</v>
+        <v>101.5854208039882</v>
       </c>
       <c r="Q14" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5593296235844</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_10</t>
+          <t>model_22_2_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999401094497496</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989654399215392</v>
       </c>
       <c r="D15" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998253326580122</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9995975287658199</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997993724035591</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.590519976734778e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009657164213041561</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001743483580954209</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001702138596687178</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001722811088820693</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005377315283235798</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007476977983607266</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084551365059</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007795288415847587</v>
       </c>
       <c r="P15" t="n">
-        <v>100.40878827957</v>
+        <v>101.5837063260707</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5576151456669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_9</t>
+          <t>model_22_2_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999399912072771</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989628655796529</v>
       </c>
       <c r="D16" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998227226698122</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996000067078556</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997984683920171</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.601557392531146e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009681194564544945</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001769535798394826</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001691658839573516</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001730573934692628</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005354155730821546</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007484355277865386</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084718295609</v>
       </c>
       <c r="O16" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.00780297977679538</v>
       </c>
       <c r="P16" t="n">
-        <v>100.40878827957</v>
+        <v>101.5797616001685</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5536704197647</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_8</t>
+          <t>model_22_2_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999398947622826</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989605807209774</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998203665857691</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996025506345179</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997977227533809</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.610560109413952e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009702522717344197</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001793053611156303</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001680900019088471</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001736976815122387</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005331166229998433</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007490367220246249</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000084854453248</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007809247660009832</v>
       </c>
       <c r="P17" t="n">
-        <v>100.40878827957</v>
+        <v>101.5765498183383</v>
       </c>
       <c r="Q17" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5504586379346</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_7</t>
+          <t>model_22_2_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999397806442875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989584742246364</v>
       </c>
       <c r="D18" t="n">
-        <v>0.999642044239351</v>
+        <v>0.999818121883819</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996048711793473</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997969895650891</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.621212523342416e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009722185936041921</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001815459637088555</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001671085929076482</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001743272783082518</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005310154316406322</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007497474590382028</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000085015561006</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007816657605606576</v>
       </c>
       <c r="P18" t="n">
-        <v>100.40878827957</v>
+        <v>101.5727561457024</v>
       </c>
       <c r="Q18" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5466649652987</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_6</t>
+          <t>model_22_2_17</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999396514588107</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.998956604654718</v>
       </c>
       <c r="D19" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998160816067753</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996067568946521</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997962681110676</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.633271420542883e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009739637550583853</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001835825147239999</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001663110827926451</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001749467987583225</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005291652752583026</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007505512254698464</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000085197940503</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007825037449933223</v>
       </c>
       <c r="P19" t="n">
-        <v>100.40878827957</v>
+        <v>101.5684702444118</v>
       </c>
       <c r="Q19" t="n">
-        <v>150.3826970991662</v>
+        <v>151.542379064008</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_5</t>
+          <t>model_22_2_18</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999395286493192</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989549043949126</v>
       </c>
       <c r="D20" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998142108773918</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996085347528382</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997956159018314</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.644735147500197e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009755508729538882</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001854498277131254</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001655591878046143</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001755068579546118</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005273378241805614</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007513145245168761</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000085371318608</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007832995392610308</v>
       </c>
       <c r="P20" t="n">
-        <v>100.40878827957</v>
+        <v>101.5644043730767</v>
       </c>
       <c r="Q20" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5383131926729</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_4</t>
+          <t>model_22_2_19</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999394010582696</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989533468150502</v>
       </c>
       <c r="D21" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998124430036966</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996101707564835</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997949940143562</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.656645211918034e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009770048053856445</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001872144728525571</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001648672861946054</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001760408795235812</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005257500702038027</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007521067219429723</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000085551447149</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007841254621716306</v>
       </c>
       <c r="P21" t="n">
-        <v>100.40878827957</v>
+        <v>101.5601889344495</v>
       </c>
       <c r="Q21" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5340977540457</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_3</t>
+          <t>model_22_2_20</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999392800874776</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989519493551701</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998108392646115</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996116532207594</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997944269761442</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.667937304352558e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009783092728423799</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001888152831307085</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001642403197314531</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001765278014310808</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005242771697058656</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007528570451521695</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000085722229443</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007849077281932265</v>
       </c>
       <c r="P22" t="n">
-        <v>100.40878827957</v>
+        <v>101.5562004090762</v>
       </c>
       <c r="Q22" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5301092286724</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_2</t>
+          <t>model_22_2_21</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999391613120807</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.9989506723223481</v>
       </c>
       <c r="D23" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998093495237518</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996130077455684</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997938946886532</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.679024466294669e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009795013269263862</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.000190302303371188</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001636674616581838</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001769848825146859</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005229434388557355</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007535930245360999</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000085889912357</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007856750397432182</v>
       </c>
       <c r="P23" t="n">
-        <v>100.40878827957</v>
+        <v>101.552291991759</v>
       </c>
       <c r="Q23" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5262008113552</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_11</t>
+          <t>model_22_2_22</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999390450483557</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.998949513702977</v>
       </c>
       <c r="D24" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998079931044928</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.9996141817927791</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997933954450023</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.689877174676171e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009805828472517234</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001916562454876911</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.000163170931496047</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.000177413588491869</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005216842976449477</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.00754312745131366</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000152142600687</v>
+        <v>1.00008605404938</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007864254003342518</v>
       </c>
       <c r="P24" t="n">
-        <v>100.40878827957</v>
+        <v>101.5484736064758</v>
       </c>
       <c r="Q24" t="n">
-        <v>150.3826970991662</v>
+        <v>151.522382426072</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_24</t>
+          <t>model_22_2_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9998922323245136</v>
+        <v>0.9999389349998774</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9991066312826919</v>
+        <v>0.998948476602611</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999642044239351</v>
+        <v>0.9998067619333036</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9996786168319468</v>
+        <v>0.999615222515956</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9996640906967031</v>
+        <v>0.9997929361645652</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0001005963946122808</v>
+        <v>5.700149717072095e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0008339204832525898</v>
+        <v>0.0009815509349200137</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004429812989663473</v>
+        <v>0.0001928851682668775</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0001857441470007699</v>
+        <v>0.0001627307869745438</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0003143627229835587</v>
+        <v>0.0001778079776207106</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004614537368134132</v>
+        <v>0.0005205623829061721</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01002977540188616</v>
+        <v>0.007549933587172867</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000152142600687</v>
+        <v>1.000086209411938</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01045676370524178</v>
+        <v>0.007871349890495894</v>
       </c>
       <c r="P25" t="n">
-        <v>100.40878827957</v>
+        <v>101.5448660486433</v>
       </c>
       <c r="Q25" t="n">
-        <v>150.3826970991662</v>
+        <v>151.5187748682396</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_2_1</t>
+          <t>model_22_2_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9998922308543119</v>
+        <v>0.9999388314224829</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9991066309941096</v>
+        <v>0.9989475345409823</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9996420248861039</v>
+        <v>0.9998056309863318</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9996786399353907</v>
+        <v>0.9996161939431918</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9996640850347467</v>
+        <v>0.9997925208175423</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0001005977669810668</v>
+        <v>5.709818212204017e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0008339207526315018</v>
+        <v>0.0009824303080986365</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0004430052492067934</v>
+        <v>0.0001940140498619859</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001857307943118308</v>
+        <v>0.0001623199492173383</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0003143680217593122</v>
+        <v>0.000178164640646877</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004614565161959433</v>
+        <v>0.000519528006962268</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01002984381638452</v>
+        <v>0.007556333907526862</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000152144676266</v>
+        <v>1.000086355638848</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01045683503228696</v>
+        <v>0.007878022685737849</v>
       </c>
       <c r="P26" t="n">
-        <v>100.4087609951046</v>
+        <v>101.5414765571019</v>
       </c>
       <c r="Q26" t="n">
-        <v>150.3826698147008</v>
+        <v>151.5153853766982</v>
       </c>
     </row>
   </sheetData>
